--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -525,16 +525,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.52486694366649</v>
+        <v>8.495724333333333</v>
       </c>
       <c r="H2">
-        <v>7.52486694366649</v>
+        <v>25.487173</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.8066990917155</v>
+        <v>2.184802666666667</v>
       </c>
       <c r="N2">
-        <v>1.8066990917155</v>
+        <v>6.554408</v>
       </c>
       <c r="O2">
-        <v>0.4983002153439848</v>
+        <v>0.5420193487373902</v>
       </c>
       <c r="P2">
-        <v>0.4983002153439848</v>
+        <v>0.5420193487373902</v>
       </c>
       <c r="Q2">
-        <v>13.59517027240224</v>
+        <v>18.56148117873155</v>
       </c>
       <c r="R2">
-        <v>13.59517027240224</v>
+        <v>167.053330608584</v>
       </c>
       <c r="S2">
-        <v>0.4983002153439848</v>
+        <v>0.5420193487373902</v>
       </c>
       <c r="T2">
-        <v>0.4983002153439848</v>
+        <v>0.5420193487373902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.52486694366649</v>
+        <v>8.495724333333333</v>
       </c>
       <c r="H3">
-        <v>7.52486694366649</v>
+        <v>25.487173</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.81902499204454</v>
+        <v>1.846054666666667</v>
       </c>
       <c r="N3">
-        <v>1.81902499204454</v>
+        <v>5.538164</v>
       </c>
       <c r="O3">
-        <v>0.5016997846560153</v>
+        <v>0.4579806512626098</v>
       </c>
       <c r="P3">
-        <v>0.5016997846560153</v>
+        <v>0.4579806512626098</v>
       </c>
       <c r="Q3">
-        <v>13.68792103233916</v>
+        <v>15.68357155226355</v>
       </c>
       <c r="R3">
-        <v>13.68792103233916</v>
+        <v>141.152143970372</v>
       </c>
       <c r="S3">
-        <v>0.5016997846560153</v>
+        <v>0.4579806512626098</v>
       </c>
       <c r="T3">
-        <v>0.5016997846560153</v>
+        <v>0.4579806512626098</v>
       </c>
     </row>
   </sheetData>
